--- a/参数检测/数据处理.xlsx
+++ b/参数检测/数据处理.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - collaalloc2333\Documents\参数检测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A39AD1F-3112-4B44-8003-A50955CA19AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A997CB0-E500-42FA-A5EA-DC199B9ADFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCE9EC90-2C34-4461-9ED9-3FB44C718C2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{CCE9EC90-2C34-4461-9ED9-3FB44C718C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>误差</t>
   </si>
@@ -45,6 +48,33 @@
   <si>
     <t>温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浴温度ºC</t>
+  </si>
+  <si>
+    <t>加补偿导线</t>
+  </si>
+  <si>
+    <t>未加补偿导线</t>
+  </si>
+  <si>
+    <t>光学高温计测温值（℃）</t>
+  </si>
+  <si>
+    <t>第一次测量</t>
+  </si>
+  <si>
+    <t>第二次测量</t>
+  </si>
+  <si>
+    <t>第三次测量</t>
+  </si>
+  <si>
+    <t>取平均值（℃）</t>
+  </si>
+  <si>
+    <t>自耦变压器电压值（V）</t>
   </si>
 </sst>
 </file>
@@ -499,7 +529,1666 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>电偶冷端温度误差</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>误差</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BEA-4490-8BE9-3C1BA5D2B6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="802802303"/>
+        <c:axId val="802802719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="802802303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>冷端温度℃</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802802719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="802802719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>误差℃</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802802303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>冷端温度对测量温度的影响</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16287057932191465"/>
+          <c:y val="0.13828952273383907"/>
+          <c:w val="0.59641464404578293"/>
+          <c:h val="0.63322296333615269"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>加补偿导线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-820E-41AD-B751-D46B6C059D0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>未加补偿导线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-820E-41AD-B751-D46B6C059D0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="743063135"/>
+        <c:axId val="743065631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="743063135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>冷端温度℃</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743065631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="743065631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>测量温度℃</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743063135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77731958762886599"/>
+          <c:y val="0.15141304824942131"/>
+          <c:w val="0.19243986254295534"/>
+          <c:h val="0.62484759702852699"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>自耦变压器电压值与光学高温计测量值关系</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1221.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1356.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.6666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2E6-4960-80A0-8D3FDFE41E62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1769580335"/>
+        <c:axId val="1769596975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1769580335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>电压 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1769596975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1769596975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>温度 ℃</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1769580335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1055,6 +2744,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1076,6 +4313,124 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BE66A7-9486-4E21-96B9-56B83BD9AC82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD26686-B098-4654-BDF3-20B2E92803E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85FB231-710C-4913-A8F3-3D9FEAFC3A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7316FAAB-2D85-4364-BF95-15ACE856BA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFFBFD9-E3DA-49AC-8520-772E1EBD976F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1452,4 +4807,223 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16C3F0-8A26-4ABA-B92F-55646DB79AAF}">
+  <dimension ref="A2:E6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>998</v>
+      </c>
+      <c r="C3">
+        <v>974</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>999</v>
+      </c>
+      <c r="C4">
+        <v>970</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>999</v>
+      </c>
+      <c r="C5">
+        <v>966</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>1003.5</v>
+      </c>
+      <c r="C6">
+        <v>961</v>
+      </c>
+      <c r="E6">
+        <v>42.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEC0A91-DF13-4045-8CE1-8C9B5E162814}">
+  <dimension ref="A7:F11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1055</v>
+      </c>
+      <c r="D8">
+        <v>1225</v>
+      </c>
+      <c r="E8">
+        <v>1350</v>
+      </c>
+      <c r="F8">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1070</v>
+      </c>
+      <c r="D9">
+        <v>1250</v>
+      </c>
+      <c r="E9">
+        <v>1340</v>
+      </c>
+      <c r="F9">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1100</v>
+      </c>
+      <c r="D10">
+        <v>1190</v>
+      </c>
+      <c r="E10">
+        <v>1380</v>
+      </c>
+      <c r="F10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C8:C10)</f>
+        <v>1075</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:F11" si="0">AVERAGE(D8:D10)</f>
+        <v>1221.6666666666667</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1356.6666666666667</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1500.6666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4C1EF7-51D0-40A3-9992-49AA6EB0BE29}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/参数检测/数据处理.xlsx
+++ b/参数检测/数据处理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - collaalloc2333\Documents\参数检测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A997CB0-E500-42FA-A5EA-DC199B9ADFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114419FE-2235-40C9-B14E-CF3623C7A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{CCE9EC90-2C34-4461-9ED9-3FB44C718C2E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>误差</t>
   </si>
@@ -76,11 +76,32 @@
   <si>
     <t>自耦变压器电压值（V）</t>
   </si>
+  <si>
+    <t>砝码MPa</t>
+  </si>
+  <si>
+    <t>弹簧罐压力表示值</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>正行程</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>反行程</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,8 +141,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5017,12 +5041,247 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4C1EF7-51D0-40A3-9992-49AA6EB0BE29}">
-  <dimension ref="A1"/>
+  <dimension ref="A5:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7-A7</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E17" si="0">D8-A8</f>
+        <v>4.9999999999999697E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.05</v>
+      </c>
+      <c r="B9">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <f>D9-A9</f>
+        <v>5.3999999999999951E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B10">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000049E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>0.105</v>
+      </c>
+      <c r="C11">
+        <v>0.105</v>
+      </c>
+      <c r="D11">
+        <v>0.105</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.125</v>
+      </c>
+      <c r="B12">
+        <v>0.13</v>
+      </c>
+      <c r="C12">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.13</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.15</v>
+      </c>
+      <c r="B13">
+        <v>0.155</v>
+      </c>
+      <c r="C13">
+        <v>0.155</v>
+      </c>
+      <c r="D13">
+        <v>0.155</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.18</v>
+      </c>
+      <c r="C14">
+        <v>0.18</v>
+      </c>
+      <c r="D14">
+        <v>0.18</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.2</v>
+      </c>
+      <c r="B15">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999767E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B16">
+        <v>0.23</v>
+      </c>
+      <c r="C16">
+        <v>0.23</v>
+      </c>
+      <c r="D16">
+        <v>0.23</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.25</v>
+      </c>
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/参数检测/数据处理.xlsx
+++ b/参数检测/数据处理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - collaalloc2333\Documents\参数检测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CollaalloC\documents\参数检测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114419FE-2235-40C9-B14E-CF3623C7A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E517AE-8CAC-40C4-9E05-CB2569A827C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{CCE9EC90-2C34-4461-9ED9-3FB44C718C2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CCE9EC90-2C34-4461-9ED9-3FB44C718C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -100,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,11 +140,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2092,6 +2094,1678 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>正行程</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C51-468C-BCDB-6742CFF624B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1550551232"/>
+        <c:axId val="1550552064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1550551232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>砝码 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MPa</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550552064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1550552064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>弹簧管压力表示值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> /MPa</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550551232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>反行程</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$7:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1E8-42DB-8A8A-B90973B4B514}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1519903664"/>
+        <c:axId val="1519901168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1519903664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>砝码 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MPa</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1519901168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1519901168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>弹簧管压力表示值 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/MPa</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1519903664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>引用误差变化曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$7:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.159999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9999999999999962E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9999999999999907E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E697-45F3-8DB1-1DE281834184}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1521615216"/>
+        <c:axId val="1521615632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1521615216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>砝码 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MPa</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1521615632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1521615632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>引用误差</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1521615216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2252,6 +3926,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3801,6 +5595,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4475,6 +7817,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A7EBE8-B104-48A4-999A-050C74943B42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEADD4BC-BFE8-4FAA-A2B8-97B8C8C0F51C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8E038F-22BB-4A51-8C3C-5408F5877E9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -4778,9 +8233,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4788,12 +8243,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4801,7 +8256,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4809,7 +8264,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4817,7 +8272,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.5</v>
       </c>
@@ -4841,14 +8296,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4862,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>28</v>
       </c>
@@ -4876,7 +8331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>33</v>
       </c>
@@ -4890,7 +8345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41</v>
       </c>
@@ -4904,7 +8359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>54</v>
       </c>
@@ -4933,13 +8388,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +8411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4976,7 +8431,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -4993,7 +8448,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -5010,7 +8465,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5043,13 +8498,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4C1EF7-51D0-40A3-9992-49AA6EB0BE29}">
   <dimension ref="A5:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5060,7 +8515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -5083,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5100,8 +8555,24 @@
         <f>D7-A7</f>
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="F7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <f>E7/0.25</f>
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5118,8 +8589,24 @@
         <f t="shared" ref="E8:E17" si="0">D8-A8</f>
         <v>4.9999999999999697E-4</v>
       </c>
+      <c r="F8">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J8" s="2">
+        <f>I8/0.25</f>
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.05</v>
       </c>
@@ -5136,8 +8623,24 @@
         <f>D9-A9</f>
         <v>5.3999999999999951E-3</v>
       </c>
+      <c r="F9">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="H9">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="I9">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ref="J8:J17" si="1">E9/0.25</f>
+        <v>2.159999999999998E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -5154,8 +8657,24 @@
         <f t="shared" si="0"/>
         <v>5.5000000000000049E-3</v>
       </c>
+      <c r="F10">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="H10">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="I10">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.200000000000002E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -5172,8 +8691,24 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999906E-3</v>
       </c>
+      <c r="F11">
+        <v>0.105</v>
+      </c>
+      <c r="G11">
+        <v>0.105</v>
+      </c>
+      <c r="H11">
+        <v>0.105</v>
+      </c>
+      <c r="I11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999962E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.125</v>
       </c>
@@ -5190,8 +8725,24 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
+      <c r="F12">
+        <v>0.1303</v>
+      </c>
+      <c r="G12">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="I12">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.15</v>
       </c>
@@ -5208,8 +8759,24 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
+      <c r="F13">
+        <v>0.155</v>
+      </c>
+      <c r="G13">
+        <v>0.155</v>
+      </c>
+      <c r="H13">
+        <v>0.155</v>
+      </c>
+      <c r="I13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.17499999999999999</v>
       </c>
@@ -5223,11 +8790,27 @@
         <v>0.18</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f>D14-A14</f>
         <v>5.0000000000000044E-3</v>
       </c>
+      <c r="F14">
+        <v>0.1802</v>
+      </c>
+      <c r="G14">
+        <v>0.1802</v>
+      </c>
+      <c r="H14">
+        <v>0.1802</v>
+      </c>
+      <c r="I14">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.2</v>
       </c>
@@ -5244,8 +8827,24 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999767E-3</v>
       </c>
+      <c r="F15">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.22500000000000001</v>
       </c>
@@ -5262,8 +8861,24 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
+      <c r="F16">
+        <v>0.23</v>
+      </c>
+      <c r="G16">
+        <v>0.23</v>
+      </c>
+      <c r="H16">
+        <v>0.23</v>
+      </c>
+      <c r="I16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.25</v>
       </c>
@@ -5278,11 +8893,29 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.25</v>
+      </c>
+      <c r="G17">
+        <v>0.25</v>
+      </c>
+      <c r="H17">
+        <v>0.25</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>